--- a/biology/Médecine/Anticorps_anti-thyroglobuline/Anticorps_anti-thyroglobuline.xlsx
+++ b/biology/Médecine/Anticorps_anti-thyroglobuline/Anticorps_anti-thyroglobuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anticorps anti-thyroglobuline (Ac anti-TG) sont des auto-anticorps du groupe des anticorps anti-thyroïdiens (en majorité des Ig G) , de rôle inconnu,  dirigés contre la thyroglobuline, protéine synthétisée par la glande thyroïde. 
 </t>
@@ -511,7 +523,9 @@
           <t>Signification pathologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont principalement demandés avec la thyroglobuline pour le suivi des cancers différentiés de la thyroïde. Le taux d’anticorps n'est pas corrélé à l’activité clinique de la maladie. Mais la réapparition de l'Ac anti-Tg est généralement un indicateur de récidive. 
 Le dosage des anticorps anti-Tg constitue une aide importante dans le suivi de la thyroïdite de Hashimoto (en seconde intention lorsque le dosage des Ac anti-TPO est négatif) et pour son diagnostic différentiel (suspicion d'une autre maladie thyroïdienne auto-immune, maladie de Basedow). La sensibilité de la méthode de dosage sanguin peut être augmentée par le dosage simultané d’autres anticorps thyroïdiens (anti-TPO, anti-récepteur de la TSH). Un résultat négatif ne permet cependant pas d’exclure le diagnostic d’une maladie auto-immune. 
